--- a/VodovozReports/Reports/Logistic/CarsExploitationReport.xlsx
+++ b/VodovozReports/Reports/Logistic/CarsExploitationReport.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyWorkRepos\Rep2\Vodovoz\Vodovoz\Reports\Logistic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\src\repos\VodovozMainRepository\Vodovoz\Vodovoz\Reports\Logistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B32343-D1C5-4C12-A586-09E850C19112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="28800" windowHeight="15435" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -79,9 +78,6 @@
     <t>{{item.CarOwnTypeName}}</t>
   </si>
   <si>
-    <t>{{item.CarTypeName}}</t>
-  </si>
-  <si>
     <t>{{item.RegNumber}}</t>
   </si>
   <si>
@@ -98,12 +94,15 @@
   </si>
   <si>
     <t>Номер строки</t>
+  </si>
+  <si>
+    <t>{{item.CarTypeOfUseName}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
@@ -214,16 +213,6 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -257,10 +246,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bold" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Hidden" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Bold" xfId="1"/>
+    <cellStyle name="Hidden" xfId="2"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -270,8 +269,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
     </dxf>
     <dxf>
@@ -285,8 +282,6 @@
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -604,16 +599,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AN12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" customWidth="1"/>
     <col min="4" max="5" width="2.7109375" customWidth="1"/>
@@ -626,271 +621,271 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:40" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="AJ2" s="3" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="AJ2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="7" t="s">
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AN3" s="6" t="s">
+      <c r="AN3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="113.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="1" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
     </row>
-    <row r="6" spans="1:40" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:40" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>2</v>
+      </c>
+      <c r="L6" s="8">
+        <v>3</v>
+      </c>
+      <c r="M6" s="8">
+        <v>4</v>
+      </c>
+      <c r="N6" s="8">
+        <v>5</v>
+      </c>
+      <c r="O6" s="9">
+        <v>6</v>
+      </c>
+      <c r="P6" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>8</v>
+      </c>
+      <c r="R6" s="8">
+        <v>9</v>
+      </c>
+      <c r="S6" s="8">
+        <v>10</v>
+      </c>
+      <c r="T6" s="8">
+        <v>11</v>
+      </c>
+      <c r="U6" s="8">
+        <v>12</v>
+      </c>
+      <c r="V6" s="8">
+        <v>13</v>
+      </c>
+      <c r="W6" s="8">
+        <v>14</v>
+      </c>
+      <c r="X6" s="8">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>16</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>17</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>18</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>19</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>20</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>21</v>
+      </c>
+      <c r="AE6" s="8">
         <v>22</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="11">
-        <v>1</v>
-      </c>
-      <c r="K6" s="12">
-        <v>2</v>
-      </c>
-      <c r="L6" s="12">
-        <v>3</v>
-      </c>
-      <c r="M6" s="12">
-        <v>4</v>
-      </c>
-      <c r="N6" s="12">
-        <v>5</v>
-      </c>
-      <c r="O6" s="13">
-        <v>6</v>
-      </c>
-      <c r="P6" s="12">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>8</v>
-      </c>
-      <c r="R6" s="12">
-        <v>9</v>
-      </c>
-      <c r="S6" s="12">
-        <v>10</v>
-      </c>
-      <c r="T6" s="12">
-        <v>11</v>
-      </c>
-      <c r="U6" s="12">
-        <v>12</v>
-      </c>
-      <c r="V6" s="12">
-        <v>13</v>
-      </c>
-      <c r="W6" s="12">
-        <v>14</v>
-      </c>
-      <c r="X6" s="12">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="12">
-        <v>16</v>
-      </c>
-      <c r="Z6" s="12">
-        <v>17</v>
-      </c>
-      <c r="AA6" s="12">
-        <v>18</v>
-      </c>
-      <c r="AB6" s="12">
-        <v>19</v>
-      </c>
-      <c r="AC6" s="12">
-        <v>20</v>
-      </c>
-      <c r="AD6" s="12">
-        <v>21</v>
-      </c>
-      <c r="AE6" s="12">
-        <v>22</v>
-      </c>
-      <c r="AF6" s="12">
+      <c r="AF6" s="8">
         <v>23</v>
       </c>
-      <c r="AG6" s="12">
+      <c r="AG6" s="8">
         <v>24</v>
       </c>
-      <c r="AH6" s="12">
+      <c r="AH6" s="8">
         <v>25</v>
       </c>
-      <c r="AI6" s="12">
+      <c r="AI6" s="8">
         <v>26</v>
       </c>
-      <c r="AJ6" s="12">
+      <c r="AJ6" s="8">
         <v>27</v>
       </c>
-      <c r="AK6" s="12">
+      <c r="AK6" s="8">
         <v>28</v>
       </c>
-      <c r="AL6" s="12">
+      <c r="AL6" s="8">
         <v>29</v>
       </c>
-      <c r="AM6" s="12">
+      <c r="AM6" s="8">
         <v>30</v>
       </c>
-      <c r="AN6" s="12">
+      <c r="AN6" s="8">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="H7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="I7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="J7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="L12" s="5"/>
+      <c r="L12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
